--- a/Onsen UI.xlsx
+++ b/Onsen UI.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSG\Downloads\Frescoplay-Sent\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>Onsen helps in creating mobile apps using ______</t>
   </si>
@@ -99,9 +104,6 @@
     <t>_____ helps in popping the top page of the navigator.</t>
   </si>
   <si>
-    <t>Popbutton</t>
-  </si>
-  <si>
     <t>Onsen has its own CLI environment?</t>
   </si>
   <si>
@@ -279,13 +281,25 @@
     <t>The prop that decides whether a dialog can be cancelled :</t>
   </si>
   <si>
-    <t>oncancel</t>
-  </si>
-  <si>
     <t>Use disable-auto-styling attribute for components to disable auto style:</t>
   </si>
   <si>
-    <t>Top/left</t>
+    <t>The ons.platform,select() should be called after the app initializes completely</t>
+  </si>
+  <si>
+    <t>The following are built-in animation interfaces, except</t>
+  </si>
+  <si>
+    <t>SwiperAnimator</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>isCancelable</t>
+  </si>
+  <si>
+    <t>Pushbutton</t>
   </si>
 </sst>
 </file>
@@ -401,9 +415,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF007635"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -452,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -696,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C54"/>
+  <dimension ref="A2:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -715,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -737,10 +759,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="b">
         <v>0</v>
@@ -759,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -839,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -904,7 +926,7 @@
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -938,7 +960,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -946,7 +968,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5" t="b">
         <v>0</v>
@@ -957,10 +979,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -968,9 +990,9 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1" t="b">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -979,10 +1001,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -990,10 +1012,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1001,10 +1023,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1012,7 +1034,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>16</v>
@@ -1023,10 +1045,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1034,10 +1056,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1045,7 +1067,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>20</v>
@@ -1056,7 +1078,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="b">
         <v>1</v>
@@ -1067,10 +1089,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1078,10 +1100,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1089,10 +1111,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1100,10 +1122,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1111,10 +1133,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1122,10 +1144,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1133,10 +1155,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1144,10 +1166,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1155,10 +1177,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1166,10 +1188,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1177,7 +1199,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="5" t="b">
         <v>1</v>
@@ -1188,7 +1210,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="8" t="b">
         <v>1</v>
@@ -1199,10 +1221,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1210,10 +1232,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1221,10 +1243,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1232,10 +1254,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,10 +1265,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1254,10 +1276,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1265,7 +1287,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>16</v>
@@ -1276,10 +1298,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1287,14 +1309,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="5" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
